--- a/biology/Botanique/Sternbergia_lutea/Sternbergia_lutea.xlsx
+++ b/biology/Botanique/Sternbergia_lutea/Sternbergia_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sternbergie jaune
 La Sternbergie jaune (Sternbergia lutea) est une espèce de plantes vivaces bulbeuses. Elle appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique la place dans la famille des Amaryllidaceae.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carl von Linné avait originellement nommé cette plante Amaryllis lutea.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante méditerranéenne, depuis les Baléares jusqu'en Iran
 </t>
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sternbergia lutea se multiplie facilement, devenant parfois invasive. Néanmoins, cette espèce est présente dans la liste de l'annexe II de la CITES.
 Le bulbe doit être tout juste enterré dans un endroit chaud en plein soleil. La fleur apparaît en fin d'été, avec ou après les feuilles. Les feuilles, qui persistent jusqu'à la fin du printemps, peuvent souffrir du gel intense (-6 °C) dans les régions à climat continental. Le bulbe entre ensuite en dormance.
